--- a/profit_simulation_understanding.xlsx
+++ b/profit_simulation_understanding.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxtrams\Documents\000_TradingRepo\R_tradecontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10B57283-A366-483A-92AB-0512CD93E04E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9573467E-60A3-4555-BB8A-7AF723C08166}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{369E6D98-91C4-4402-A702-BAD180FCEB81}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{369E6D98-91C4-4402-A702-BAD180FCEB81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="24">
   <si>
     <t>Factor</t>
   </si>
@@ -61,6 +63,42 @@
   </si>
   <si>
     <t>File to understand profit simulation</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>NextState</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>BUV</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>RAV</t>
+  </si>
+  <si>
+    <t>RAN</t>
+  </si>
+  <si>
+    <t>BEN</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BED39-9590-4B97-9710-5427B2C9207F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A1+$F$6))</f>
+        <f t="shared" ref="B1:B37" si="0">$F$8+$F$5*COS(RADIANS($F$7*A1+$F$6))</f>
         <v>1.83772268236293E-16</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1581,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A2+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>0.52094453300079124</v>
       </c>
     </row>
@@ -1590,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A3+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.0260604299770064</v>
       </c>
     </row>
@@ -1599,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A4+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
       <c r="E4" t="s">
@@ -1617,7 +1655,7 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A5+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.9283628290596182</v>
       </c>
       <c r="E5" t="s">
@@ -1635,7 +1673,7 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A6+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.2981333293569342</v>
       </c>
       <c r="E6" t="s">
@@ -1653,7 +1691,7 @@
         <v>60</v>
       </c>
       <c r="B7">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A7+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.598076211353316</v>
       </c>
       <c r="E7" t="s">
@@ -1671,7 +1709,7 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A8+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.8190778623577253</v>
       </c>
       <c r="E8" t="s">
@@ -1689,7 +1727,7 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A9+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.9544232590366239</v>
       </c>
     </row>
@@ -1698,7 +1736,7 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A10+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1707,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A11+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.9544232590366239</v>
       </c>
     </row>
@@ -1716,7 +1754,7 @@
         <v>110</v>
       </c>
       <c r="B12">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A12+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.8190778623577253</v>
       </c>
     </row>
@@ -1725,7 +1763,7 @@
         <v>120</v>
       </c>
       <c r="B13">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A13+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.598076211353316</v>
       </c>
     </row>
@@ -1734,7 +1772,7 @@
         <v>130</v>
       </c>
       <c r="B14">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A14+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>2.2981333293569342</v>
       </c>
     </row>
@@ -1743,7 +1781,7 @@
         <v>140</v>
       </c>
       <c r="B15">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A15+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.9283628290596182</v>
       </c>
     </row>
@@ -1752,7 +1790,7 @@
         <v>150</v>
       </c>
       <c r="B16">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A16+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.5000000000000004</v>
       </c>
     </row>
@@ -1761,7 +1799,7 @@
         <v>160</v>
       </c>
       <c r="B17">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A17+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.0260604299770064</v>
       </c>
     </row>
@@ -1770,7 +1808,7 @@
         <v>170</v>
       </c>
       <c r="B18">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A18+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>0.52094453300079124</v>
       </c>
     </row>
@@ -1779,7 +1817,7 @@
         <v>180</v>
       </c>
       <c r="B19">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A19+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>1.83772268236293E-16</v>
       </c>
     </row>
@@ -1788,7 +1826,7 @@
         <v>190</v>
       </c>
       <c r="B20">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A20+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-0.52094453300079091</v>
       </c>
     </row>
@@ -1797,7 +1835,7 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A21+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.0260604299770062</v>
       </c>
     </row>
@@ -1806,7 +1844,7 @@
         <v>210</v>
       </c>
       <c r="B22">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A22+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.4999999999999993</v>
       </c>
     </row>
@@ -1815,7 +1853,7 @@
         <v>220</v>
       </c>
       <c r="B23">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A23+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.9283628290596182</v>
       </c>
     </row>
@@ -1824,7 +1862,7 @@
         <v>230</v>
       </c>
       <c r="B24">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A24+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.2981333293569337</v>
       </c>
     </row>
@@ -1833,7 +1871,7 @@
         <v>240</v>
       </c>
       <c r="B25">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A25+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.598076211353316</v>
       </c>
     </row>
@@ -1842,7 +1880,7 @@
         <v>250</v>
       </c>
       <c r="B26">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A26+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.8190778623577248</v>
       </c>
     </row>
@@ -1851,7 +1889,7 @@
         <v>260</v>
       </c>
       <c r="B27">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A27+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.9544232590366239</v>
       </c>
     </row>
@@ -1860,7 +1898,7 @@
         <v>270</v>
       </c>
       <c r="B28">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A28+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
@@ -1869,7 +1907,7 @@
         <v>280</v>
       </c>
       <c r="B29">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A29+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.9544232590366239</v>
       </c>
     </row>
@@ -1878,7 +1916,7 @@
         <v>290</v>
       </c>
       <c r="B30">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A30+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.8190778623577253</v>
       </c>
     </row>
@@ -1887,7 +1925,7 @@
         <v>300</v>
       </c>
       <c r="B31">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A31+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.598076211353316</v>
       </c>
     </row>
@@ -1896,7 +1934,7 @@
         <v>310</v>
       </c>
       <c r="B32">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A32+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-2.2981333293569342</v>
       </c>
     </row>
@@ -1905,7 +1943,7 @@
         <v>320</v>
       </c>
       <c r="B33">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A33+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.9283628290596184</v>
       </c>
     </row>
@@ -1914,7 +1952,7 @@
         <v>330</v>
       </c>
       <c r="B34">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A34+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.5000000000000013</v>
       </c>
     </row>
@@ -1923,7 +1961,7 @@
         <v>340</v>
       </c>
       <c r="B35">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A35+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-1.0260604299770058</v>
       </c>
     </row>
@@ -1932,7 +1970,7 @@
         <v>350</v>
       </c>
       <c r="B36">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A36+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-0.52094453300079102</v>
       </c>
     </row>
@@ -1941,7 +1979,7 @@
         <v>360</v>
       </c>
       <c r="B37">
-        <f>$F$8+$F$5*COS(RADIANS($F$7*A37+$F$6))</f>
+        <f t="shared" si="0"/>
         <v>-5.51316804708879E-16</v>
       </c>
     </row>
@@ -1950,4 +1988,3450 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB82C4A-7958-4FCE-BB3D-342A69A9C2A6}">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>-3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>-5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>-6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>-7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>-8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>-9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>-10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>-9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>-8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>-7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>-6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>-5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>-4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>-2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>-3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>-4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>-5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>-6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>-7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>-8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>-9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>-10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>-9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>-8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>-7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>-6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>-5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>-4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>-3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>-1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>-2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>-1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>-3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>-4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>-5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>-6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>-7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>-8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>-9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>-10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>-9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>-8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>-7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>-6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>-5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>-4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>-3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>-2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>-1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8761ECA3-A02B-4EB3-AD30-B2AA402F8238}">
+  <dimension ref="A1:D122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>-8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>-9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>-10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>-8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>-7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>-6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>-5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>-3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>-4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>-5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>-6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>-7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>-8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>-9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>-10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>-9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>-8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>-7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>-6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>-5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>-3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82">
+        <v>-2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>-1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84">
+        <v>-2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>-3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>-4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>-5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>-6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>-7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>-8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>-9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92">
+        <v>-10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>-9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94">
+        <v>-8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>-7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96">
+        <v>-6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>-5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>-4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>-3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>-2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>-1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122">
+        <v>-1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>